--- a/docs/ST3a/ST3a_12.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1014 +505,1201 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731318724.4917312</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731318724.7001615</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318724.4917312.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318724.7001615.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.48</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.11</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731318725.4016395</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731318725.9403877</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318725.4016395.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318725.9403877.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.07</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.12</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731318726.678867</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731318733.3774495</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318726.678867.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318733.3774495.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.46</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731318734.9136102</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731318735.34656</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318734.9136102.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318735.34656.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.98</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>279.03</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731318735.6434584</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731318738.9612265</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318735.6434584.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731318738.9612265.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>279.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>280.15</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.8499999999999659</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731318739.449643</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731318739.6307368</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318739.449643.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318739.6307368.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>278.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>278.11</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731318740.2494023</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731318740.7221668</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318740.2494023.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318740.7221668.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.07</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.12</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731318741.3529716</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731318746.4344404</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318741.3529716.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318746.4344404.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>278</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.46</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.4599999999999795</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731318747.7060416</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731318748.0760229</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318747.7060416.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318748.0760229.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278.98</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>279.03</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.04999999999995453</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731318748.3273509</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731318751.1567822</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318748.3273509.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318751.1567822.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>279.3</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>280.15</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.8499999999999659</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731318751.6753757</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731318753.4813652</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318751.6753757.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318753.4813652.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>278.71</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>278.62</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.08999999999997499</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731318753.9884675</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731318760.0865567</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318753.9884675.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318760.0865567.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>278.92</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>279.47</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.5500000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731318760.1025026</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731318762.4014566</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318760.1025026.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318762.4014566.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>279.47</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.99</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731318762.579169</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731318765.8479311</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318762.579169.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731318765.8479311.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>280.16</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>281.03</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.8699999999999477</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731318768.1332426</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731318770.1981003</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318768.1332426.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318770.1981003.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>127.89</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>127.66</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.230000000000004</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731318770.255769</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731318773.6107678</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318770.255769.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318773.6107678.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>127.63</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>127.61</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731318776.2889354</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731318777.9509802</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318776.2889354.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731318777.9509802.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>128.05</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>127.9</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731318778.3154733</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731318778.3154733.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731318778.3154733.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.19</v>
       </c>
-      <c r="J20" t="n">
-        <v>128.19</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
+      <c r="L20" t="n">
+        <v>128.91</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.7199999999999989</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731318782.1000028</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731318783.3264425</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318782.1000028.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318783.3264425.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6375</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6373</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731318783.3413758</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731318783.7675536</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318783.3413758.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318783.7675536.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6373</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6373</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1505,2076 +1707,2472 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731318785.8745317</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731318792.1299734</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318785.8745317.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318792.1299734.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6326.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6378</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-51.5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731318796.0605404</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731318796.2993886</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318796.0605404.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731318796.2993886.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6429.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6437</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731318800.658542</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731318801.725371</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318800.658542.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318801.725371.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>496.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>496.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731318806.9817533</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731318808.0532079</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318806.9817533.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731318808.0532079.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>498.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>498.75</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731318808.068171</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731318808.068171.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731318808.068171.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>498.75</v>
       </c>
-      <c r="J27" t="n">
-        <v>498.75</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
+      <c r="L27" t="n">
+        <v>501.85</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-3.100000000000023</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731318811.6089768</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731318816.4299052</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318811.6089768.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318816.4299052.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>224.69</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>224.32</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3700000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731318816.4448643</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731318818.9119153</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318816.4448643.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731318818.9119153.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>224.32</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>225.09</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7700000000000102</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731318821.9094367</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731318821.9094367.png</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731318821.9094367.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>225.91</v>
       </c>
-      <c r="J30" t="n">
-        <v>225.91</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
+      <c r="L30" t="n">
+        <v>226.62</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.710000000000008</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731318835.534473</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731318840.9473925</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318835.534473.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731318840.9473925.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1017</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1030.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-13.59999999999991</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731318841.4128478</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731318846.0369546</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318841.4128478.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318846.0369546.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>11.941</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>11.936</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.005000000000000782</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731318850.8990154</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731318852.1700735</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318850.8990154.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731318852.1700735.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>11.962</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>11.959</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.003000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731318856.956469</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731318857.3535936</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318856.956469.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318857.3535936.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>123.38</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>124.08</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7000000000000028</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731318857.576318</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731318858.2165852</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318857.576318.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731318858.2165852.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>123.56</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>123.7</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731318858.2315457</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731318858.2315457.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731318858.2315457.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>123.7</v>
       </c>
-      <c r="J36" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>125</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.299999999999997</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-1.05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731318870.7807639</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731318870.9127386</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318870.7807639.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318870.9127386.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>158.7</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>158.88</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731318872.6444244</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731318873.4334533</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318872.6444244.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318873.4334533.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>159.02</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>159.12</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731318873.5158489</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731318879.6685457</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318873.5158489.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731318879.6685457.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>159.22</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>161.62</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-2.400000000000006</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731318881.4778326</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731318881.4778326.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731318881.4778326.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>161.9</v>
       </c>
-      <c r="J40" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>162.3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731318884.5859635</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731318885.3924189</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318884.5859635.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318885.3924189.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>49.055</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>49.04</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731318885.5165102</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731318893.7268336</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318885.5165102.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731318893.7268336.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>48.975</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>49.885</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.9099999999999966</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731318895.4246519</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731318895.4246519.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731318895.4246519.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>49.99</v>
       </c>
-      <c r="J43" t="n">
-        <v>49.99</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>50.225</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.2349999999999994</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731318908.4830227</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731318909.8780832</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318908.4830227.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731318909.8780832.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>1389</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>8.400000000000091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731318910.147123</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731318910.147123.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731318910.147123.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J45" t="n">
-        <v>1386.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>1387.6</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731318921.0798802</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731318921.8501892</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318921.0798802.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318921.8501892.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>61</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>61.29</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2899999999999991</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731318922.4973264</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731318925.5004575</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318922.4973264.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731318925.5004575.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>61.06</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>61.29</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731318928.7322016</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731318929.0565841</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318928.7322016.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318929.0565841.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>96.81</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>97.25</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731318930.117848</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731318932.190138</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318930.117848.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731318932.190138.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>97.09</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>96.88</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731318942.341432</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731318943.1619465</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318942.341432.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SELG1731318943.1619465.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>55.35</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>55.34</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731318943.2094405</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731318943.2094405.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731318943.2094405.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>55.32</v>
       </c>
-      <c r="J51" t="n">
-        <v>55.32</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>55.97</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.6499999999999986</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731318954.5572927</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731318956.6744623</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318954.5572927.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318956.6744623.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>150.42</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>149.92</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731318957.1803486</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731318959.4334311</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318957.1803486.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318959.4334311.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>149.88</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>149.58</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2999999999999829</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731318959.4473886</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731318962.8504739</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318959.4473886.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731318962.8504739.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>149.58</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>150.1</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.5199999999999818</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731318971.4688365</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731318975.4681265</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731318971.4688365.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731318975.4681265.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>0.2945</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.2957</v>
       </c>
-      <c r="K55" t="n">
-        <v>-0.001199999999999979</v>
+      <c r="M55" t="n">
+        <v>-0.001200000000000034</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731318975.5389447</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731318975.5389447.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731318975.5389447.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>0.2956</v>
       </c>
-      <c r="J56" t="n">
-        <v>0.2956</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>0.2988</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.003200000000000036</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731318977.9514</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731318978.440719</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318977.9514.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318978.440719.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>19.919</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>19.861</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.05799999999999983</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731318980.305223</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731318988.122277</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318980.305223.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318988.122277.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>19.863</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>19.955</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.09199999999999875</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731318988.1382062</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731318989.0674844</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318988.1382062.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318989.0674844.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>19.955</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>19.97</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731318989.083416</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731318992.1795805</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318989.083416.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731318992.1795805.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>19.97</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>20.108</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.1380000000000017</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731318992.195566</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731318992.195566.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731318992.195566.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>20.108</v>
       </c>
-      <c r="J61" t="n">
-        <v>20.108</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>20.035</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.0730000000000004</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731318992.9039</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731318995.6221662</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318992.9039.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318995.6221662.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>664.5</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>665.25</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731318996.0993013</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731318996.93377</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318996.0993013.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731318996.93377.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>665.15</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>665.35</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731319004.1079013</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731319005.714488</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731319004.1079013.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731319005.714488.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>671.05</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>672.65</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-1.600000000000023</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731319005.73044</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731319005.73044.png</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731319005.73044.png</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>672.65</v>
       </c>
-      <c r="J65" t="n">
-        <v>672.65</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
+      <c r="L65" t="n">
+        <v>674.45</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.800000000000068</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731319007.8668242</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731319009.6807802</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731319007.8668242.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731319009.6807802.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>149.75</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>149.35</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +4186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3612,6 +4210,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3625,6 +4238,15 @@
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.1833333333333308</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3633,11 +4255,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.157</v>
+        <v>-0.2300000000000004</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.04600000000000008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3651,6 +4282,15 @@
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>-0.167999999999995</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3664,6 +4304,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3672,11 +4321,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.120000000000005</v>
+        <v>-1.719999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.4299999999999997</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3685,11 +4343,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.6499999999999773</v>
+        <v>1.150000000000091</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.2875000000000227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3698,11 +4365,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.06000000000000227</v>
+        <v>-0.7800000000000011</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.1950000000000003</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3711,11 +4387,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8400000000000034</v>
+        <v>-0.4599999999999937</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.1533333333333312</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3724,11 +4409,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9249999999999972</v>
+        <v>1.159999999999997</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.3866666666666655</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3737,11 +4431,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.140000000000015</v>
+        <v>1.850000000000023</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.6166666666666742</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3755,6 +4458,15 @@
       <c r="C12" t="n">
         <v>3</v>
       </c>
+      <c r="D12" t="n">
+        <v>0.4399999999999882</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8800000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3763,11 +4475,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.25</v>
+        <v>-3.350000000000023</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>-1.116666666666674</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3781,6 +4502,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3794,6 +4524,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.3250000000000028</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3807,6 +4546,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.004000000000000448</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3815,11 +4563,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.400000000000091</v>
+        <v>9.200000000000045</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>4.600000000000023</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3828,11 +4585,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00999999999999801</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3841,11 +4607,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001199999999999979</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.001000000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3859,6 +4634,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.4000000000000057</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3872,6 +4656,15 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>-13.59999999999991</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.34</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3885,6 +4678,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
